--- a/susp_solv.xlsx
+++ b/susp_solv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/sh19129_bristol_ac_uk/Documents/Documents/MyProject/HSP/MystMS/MystMS_SP2_20230506/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC1048E8991D7BDE5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB5F1066-38BA-456C-A9BD-8C0ECEDF0CD5}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC1048E8991D7BDE5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C9A7906-671E-47DF-9521-81A4AA3DD04F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,10 +90,10 @@
     <t>EA</t>
   </si>
   <si>
-    <t>ethyal_acetate</t>
-  </si>
-  <si>
     <t>est</t>
+  </si>
+  <si>
+    <t>ethyl_acetate</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,10 +542,10 @@
         <v>88.11</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
